--- a/rnaSample/rnaSample_J.PLAGGENBERG_09.10.19.xlsx
+++ b/rnaSample/rnaSample_J.PLAGGENBERG_09.10.19.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">biosampleNumber</t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">rnaDate</t>
@@ -81,7 +81,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -112,6 +112,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="0"/>
@@ -160,7 +166,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -173,7 +179,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -204,8 +214,8 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -213,14 +223,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -266,37 +276,40 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3" t="n">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4" t="b">
+      <c r="H2" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="4" t="b">
+      <c r="K2" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -324,7 +337,7 @@
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -333,22 +346,25 @@
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="6" t="n">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4" t="b">
+      <c r="H3" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="4" t="b">
+      <c r="K3" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -362,7 +378,7 @@
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="6" t="n">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -371,22 +387,25 @@
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4" t="b">
+      <c r="H4" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="4" t="b">
+      <c r="K4" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
@@ -400,7 +419,7 @@
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -409,22 +428,25 @@
       <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="6" t="n">
         <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4" t="b">
+      <c r="H5" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="4" t="b">
+      <c r="K5" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L5" s="1" t="s">
@@ -438,7 +460,7 @@
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="6" t="n">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -447,22 +469,25 @@
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="6" t="n">
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4" t="b">
+      <c r="H6" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="4" t="b">
+      <c r="K6" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -476,7 +501,7 @@
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="6" t="n">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -485,22 +510,25 @@
       <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="6" t="n">
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4" t="b">
+      <c r="H7" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="4" t="b">
+      <c r="K7" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -514,7 +542,7 @@
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="6" t="n">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -523,22 +551,25 @@
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="6" t="n">
         <v>7</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4" t="b">
+      <c r="H8" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="4" t="b">
+      <c r="K8" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
@@ -552,7 +583,7 @@
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="6" t="n">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -561,22 +592,25 @@
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="6" t="n">
         <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4" t="b">
+      <c r="H9" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="4" t="b">
+      <c r="K9" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">

--- a/rnaSample/rnaSample_J.PLAGGENBERG_09.10.19.xlsx
+++ b/rnaSample/rnaSample_J.PLAGGENBERG_09.10.19.xlsx
@@ -116,6 +116,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -166,7 +167,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -185,6 +186,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -215,10 +220,10 @@
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
   </cols>
@@ -297,18 +302,17 @@
       <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="5" t="n">
+      <c r="H2" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="K2" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -337,7 +341,7 @@
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="7" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -346,24 +350,23 @@
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="7" t="n">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="5" t="n">
+      <c r="H3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="K3" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -378,7 +381,7 @@
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="7" t="n">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -387,24 +390,23 @@
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="7" t="n">
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="5" t="n">
+      <c r="H4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="K4" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -419,7 +421,7 @@
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="7" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -428,24 +430,23 @@
       <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="7" t="n">
         <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="n">
+      <c r="H5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="K5" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -460,7 +461,7 @@
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="7" t="n">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -469,24 +470,23 @@
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="6" t="n">
+      <c r="F6" s="7" t="n">
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="5" t="n">
+      <c r="H6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="K6" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -501,7 +501,7 @@
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="7" t="n">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -510,24 +510,23 @@
       <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="F7" s="7" t="n">
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="5" t="n">
+      <c r="H7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="5" t="n">
+      <c r="K7" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -542,7 +541,7 @@
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="7" t="n">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -551,24 +550,23 @@
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="7" t="n">
         <v>7</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="5" t="n">
+      <c r="H8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="K8" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -583,7 +581,7 @@
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="7" t="n">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -592,24 +590,23 @@
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="7" t="n">
         <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="5" t="n">
+      <c r="H9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="K9" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
